--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Source</t>
   </si>
@@ -35,10 +35,13 @@
     <t>Delhi (DEL)</t>
   </si>
   <si>
-    <t>15 October 2020</t>
-  </si>
-  <si>
-    <t>18 October 2020</t>
+    <t>15 November 2020</t>
+  </si>
+  <si>
+    <t>18 November 2020</t>
+  </si>
+  <si>
+    <t>25 November 2020</t>
   </si>
 </sst>
 </file>
@@ -383,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -463,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
     </row>
